--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
